--- a/Code/Results/Cases/Case_1_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2720050036582222</v>
+        <v>0.1423430998685689</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04139088107137923</v>
+        <v>0.07158483997343978</v>
       </c>
       <c r="E2">
-        <v>0.1700891170285885</v>
+        <v>0.07745764676342759</v>
       </c>
       <c r="F2">
-        <v>2.189175249060995</v>
+        <v>1.882501660108005</v>
       </c>
       <c r="G2">
-        <v>0.0007899338618372569</v>
+        <v>0.002491788268177655</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.393641202968638</v>
+        <v>1.272811968774079</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.029944993792704</v>
+        <v>0.4086679317595383</v>
       </c>
       <c r="N2">
-        <v>1.465190446409238</v>
+        <v>2.257329970245308</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2373475914730818</v>
+        <v>0.1329860782556551</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04243543690241935</v>
+        <v>0.07194469834303163</v>
       </c>
       <c r="E3">
-        <v>0.1471036853325955</v>
+        <v>0.07184626472631805</v>
       </c>
       <c r="F3">
-        <v>1.967676655520407</v>
+        <v>1.834881906873136</v>
       </c>
       <c r="G3">
-        <v>0.0007987923843235423</v>
+        <v>0.00249717793146583</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.919764735004321</v>
+        <v>1.15332223790071</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8865648051358903</v>
+        <v>0.3728690383117055</v>
       </c>
       <c r="N3">
-        <v>1.472693294410178</v>
+        <v>2.262382466212301</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2163017699422625</v>
+        <v>0.1273150356605015</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04315436363210523</v>
+        <v>0.07218726011375765</v>
       </c>
       <c r="E4">
-        <v>0.1333538752434578</v>
+        <v>0.06845219826029236</v>
       </c>
       <c r="F4">
-        <v>1.836378292730259</v>
+        <v>1.806765004655333</v>
       </c>
       <c r="G4">
-        <v>0.0008043644790424353</v>
+        <v>0.002500658947520624</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.634094209013824</v>
+        <v>1.080647570257838</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8003137987106186</v>
+        <v>0.3511290626892603</v>
       </c>
       <c r="N4">
-        <v>1.479358747543301</v>
+        <v>2.266127998233017</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207777578609452</v>
+        <v>0.1250227743728942</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04346531555385269</v>
+        <v>0.07229151198261619</v>
       </c>
       <c r="E5">
-        <v>0.1278298604246224</v>
+        <v>0.06708177124968628</v>
       </c>
       <c r="F5">
-        <v>1.78392862771237</v>
+        <v>1.795587397134881</v>
       </c>
       <c r="G5">
-        <v>0.0008066705470647545</v>
+        <v>0.002502120829616528</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.518814644480557</v>
+        <v>1.051203448059454</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.765550477130617</v>
+        <v>0.342329374868342</v>
       </c>
       <c r="N5">
-        <v>1.482559632105364</v>
+        <v>2.267815513991565</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2063651067379766</v>
+        <v>0.1246432798875929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04351799375167076</v>
+        <v>0.07230914864330629</v>
       </c>
       <c r="E6">
-        <v>0.1269170462395302</v>
+        <v>0.06685497225583958</v>
       </c>
       <c r="F6">
-        <v>1.775279650716584</v>
+        <v>1.793748237733269</v>
       </c>
       <c r="G6">
-        <v>0.0008070556600927228</v>
+        <v>0.002502366196151109</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.499735599896866</v>
+        <v>1.04632454650249</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7597995216584508</v>
+        <v>0.3408717599831945</v>
       </c>
       <c r="N6">
-        <v>1.483119498830774</v>
+        <v>2.268105442861554</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2161866070387362</v>
+        <v>0.1272840454658848</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04315848631166119</v>
+        <v>0.07218864423884241</v>
       </c>
       <c r="E7">
-        <v>0.1332790713226935</v>
+        <v>0.0684336651493993</v>
       </c>
       <c r="F7">
-        <v>1.835666824205276</v>
+        <v>1.806613127208777</v>
       </c>
       <c r="G7">
-        <v>0.0008043954336073779</v>
+        <v>0.002500678487278869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.632535166402675</v>
+        <v>1.080249786151768</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7998434914626245</v>
+        <v>0.3510101472946232</v>
       </c>
       <c r="N7">
-        <v>1.47939999492273</v>
+        <v>2.266150104834651</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2600023822892723</v>
+        <v>0.1391014386017417</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04173397475893381</v>
+        <v>0.07170441795864235</v>
       </c>
       <c r="E8">
-        <v>0.1620805997734394</v>
+        <v>0.07551204577836046</v>
       </c>
       <c r="F8">
-        <v>2.111746265371011</v>
+        <v>1.86584840825688</v>
       </c>
       <c r="G8">
-        <v>0.000792961932043375</v>
+        <v>0.002493611072491573</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.229025701915305</v>
+        <v>1.231466480446613</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9800964334177564</v>
+        <v>0.3962739049781092</v>
       </c>
       <c r="N8">
-        <v>1.467329329508289</v>
+        <v>2.258938208220485</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3481136188380987</v>
+        <v>0.1628622019188128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03963470134765501</v>
+        <v>0.07092754763001707</v>
       </c>
       <c r="E9">
-        <v>0.2220637303416879</v>
+        <v>0.08981122592701496</v>
       </c>
       <c r="F9">
-        <v>2.696874908213033</v>
+        <v>1.991001085977075</v>
       </c>
       <c r="G9">
-        <v>0.0007714965214313985</v>
+        <v>0.002481107530048487</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.450731738090724</v>
+        <v>1.533637308493894</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.350993272562604</v>
+        <v>0.4869956841956906</v>
       </c>
       <c r="N9">
-        <v>1.461654420252685</v>
+        <v>2.249926740487723</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4146974564132648</v>
+        <v>0.1806765052107977</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03864419615297621</v>
+        <v>0.07046382200439183</v>
       </c>
       <c r="E10">
-        <v>0.2692585149522131</v>
+        <v>0.1005884801463353</v>
       </c>
       <c r="F10">
-        <v>3.163624190164114</v>
+        <v>2.088571880402924</v>
       </c>
       <c r="G10">
-        <v>0.0007561521804317906</v>
+        <v>0.002472737717014231</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.395942947258959</v>
+        <v>1.759296755071546</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.639301438615945</v>
+        <v>0.5549200920212343</v>
       </c>
       <c r="N10">
-        <v>1.471079233691754</v>
+        <v>2.246472598048115</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4455192248216377</v>
+        <v>0.1888583060809452</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03834885406746125</v>
+        <v>0.07027649615865883</v>
       </c>
       <c r="E11">
-        <v>0.2916699584325499</v>
+        <v>0.1055539900104066</v>
       </c>
       <c r="F11">
-        <v>3.386650633144626</v>
+        <v>2.134211106057762</v>
       </c>
       <c r="G11">
-        <v>0.0007492233276155691</v>
+        <v>0.002469105259967509</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.840499655167037</v>
+        <v>1.862798012059102</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.775267846015666</v>
+        <v>0.5861138132760431</v>
       </c>
       <c r="N11">
-        <v>1.479009461819956</v>
+        <v>2.245597340192361</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.45727934152616</v>
+        <v>0.1919677145311596</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03826297384129518</v>
+        <v>0.07020899142452564</v>
       </c>
       <c r="E12">
-        <v>0.3003181067282839</v>
+        <v>0.1074436219974331</v>
       </c>
       <c r="F12">
-        <v>3.472908089474629</v>
+        <v>2.15167612170174</v>
       </c>
       <c r="G12">
-        <v>0.0007466029457858359</v>
+        <v>0.002467754747616251</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.01135314685024</v>
+        <v>1.902116723378356</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.82758266695177</v>
+        <v>0.5979696903906131</v>
       </c>
       <c r="N12">
-        <v>1.48260444362684</v>
+        <v>2.245366688098855</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4547424434503853</v>
+        <v>0.1912975536206147</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03828025008231606</v>
+        <v>0.0702233766063749</v>
       </c>
       <c r="E13">
-        <v>0.2984479370243562</v>
+        <v>0.1070362381088259</v>
       </c>
       <c r="F13">
-        <v>3.454246218709471</v>
+        <v>2.147906569968455</v>
       </c>
       <c r="G13">
-        <v>0.000747167209022999</v>
+        <v>0.002468044494240845</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.97443789972823</v>
+        <v>1.89364312394099</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.816276560974572</v>
+        <v>0.5954143625636874</v>
       </c>
       <c r="N13">
-        <v>1.481802675327543</v>
+        <v>2.245411869306182</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4464848874292215</v>
+        <v>0.1891138961956642</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03834124519259419</v>
+        <v>0.07027087353190353</v>
       </c>
       <c r="E14">
-        <v>0.2923780485722389</v>
+        <v>0.1057092632668102</v>
       </c>
       <c r="F14">
-        <v>3.393709314018565</v>
+        <v>2.13564429483381</v>
       </c>
       <c r="G14">
-        <v>0.0007490077032578388</v>
+        <v>0.002468993651921829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.854502981839516</v>
+        <v>1.866030262082461</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.779554388380646</v>
+        <v>0.5870883252194119</v>
       </c>
       <c r="N14">
-        <v>1.479292931905221</v>
+        <v>2.245576340311672</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4414388129616214</v>
+        <v>0.1877777912290952</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03838210628367733</v>
+        <v>0.07030041468135906</v>
       </c>
       <c r="E15">
-        <v>0.2886819272653369</v>
+        <v>0.1048976718889207</v>
       </c>
       <c r="F15">
-        <v>3.356871915478251</v>
+        <v>2.128157119276352</v>
       </c>
       <c r="G15">
-        <v>0.0007501353776709433</v>
+        <v>0.002469578292782454</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.781379560168602</v>
+        <v>1.849132963917896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.757173103380438</v>
+        <v>0.5819940848257374</v>
       </c>
       <c r="N15">
-        <v>1.477834931863455</v>
+        <v>2.245690230140838</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4126948909666481</v>
+        <v>0.1801433680091691</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03866691757204421</v>
+        <v>0.07047654249754487</v>
       </c>
       <c r="E16">
-        <v>0.2678149612680798</v>
+        <v>0.1002652597917404</v>
       </c>
       <c r="F16">
-        <v>3.149285837406353</v>
+        <v>2.085614661034668</v>
       </c>
       <c r="G16">
-        <v>0.0007566057053784547</v>
+        <v>0.002472978616029927</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.367217354014315</v>
+        <v>1.752550028495932</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.630523659979985</v>
+        <v>0.5528875328860607</v>
       </c>
       <c r="N16">
-        <v>1.470639875331145</v>
+        <v>2.246543863943302</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3952059156717809</v>
+        <v>0.1754798159803954</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03888379155768362</v>
+        <v>0.07059066631250488</v>
       </c>
       <c r="E17">
-        <v>0.255272317705348</v>
+        <v>0.09743971371644733</v>
       </c>
       <c r="F17">
-        <v>3.024854475953248</v>
+        <v>2.059838875544301</v>
       </c>
       <c r="G17">
-        <v>0.0007605855559189987</v>
+        <v>0.002475109324677173</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.117150447444203</v>
+        <v>1.693518844784421</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.554151030742176</v>
+        <v>0.5351078523468829</v>
       </c>
       <c r="N17">
-        <v>1.467204359699934</v>
+        <v>2.24724630908625</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3851960392076421</v>
+        <v>0.1728048089989898</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03902289190589414</v>
+        <v>0.07065852894271885</v>
       </c>
       <c r="E18">
-        <v>0.2481450471689044</v>
+        <v>0.09582043748735458</v>
       </c>
       <c r="F18">
-        <v>2.954274063856559</v>
+        <v>2.045131207386731</v>
       </c>
       <c r="G18">
-        <v>0.0007628797638239477</v>
+        <v>0.002476351333812429</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.974662333307379</v>
+        <v>1.659645262049935</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.510667390852376</v>
+        <v>0.5249091075235839</v>
       </c>
       <c r="N18">
-        <v>1.465566598647612</v>
+        <v>2.247715810068655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3818149940452713</v>
+        <v>0.1719003614103656</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03907235474082782</v>
+        <v>0.07068188660026919</v>
       </c>
       <c r="E19">
-        <v>0.245746079375003</v>
+        <v>0.09527318442842159</v>
       </c>
       <c r="F19">
-        <v>2.93053924357352</v>
+        <v>2.040171625363627</v>
       </c>
       <c r="G19">
-        <v>0.0007636575311415441</v>
+        <v>0.002476774692063977</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.92663749373645</v>
+        <v>1.648189824325925</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.49601702479832</v>
+        <v>0.5214607036841699</v>
       </c>
       <c r="N19">
-        <v>1.465068260890021</v>
+        <v>2.247885998974027</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3970624599660368</v>
+        <v>0.1759754994505442</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03885919443259667</v>
+        <v>0.07057828746077632</v>
       </c>
       <c r="E20">
-        <v>0.2565983318697675</v>
+        <v>0.09773988510513476</v>
       </c>
       <c r="F20">
-        <v>3.037996241919927</v>
+        <v>2.062570536200468</v>
       </c>
       <c r="G20">
-        <v>0.0007601613926985491</v>
+        <v>0.002474880802195848</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.143628625130589</v>
+        <v>1.699794554936489</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.562234174386759</v>
+        <v>0.5369976591303072</v>
       </c>
       <c r="N20">
-        <v>1.467534606154445</v>
+        <v>2.247164751359534</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4489078247929825</v>
+        <v>0.1897549876326536</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03832259264380156</v>
+        <v>0.07025682912848552</v>
       </c>
       <c r="E21">
-        <v>0.2941563140406274</v>
+        <v>0.1060987734331675</v>
       </c>
       <c r="F21">
-        <v>3.411439258521568</v>
+        <v>2.139241053925417</v>
       </c>
       <c r="G21">
-        <v>0.000748467047134502</v>
+        <v>0.002468714183403628</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.889659050824207</v>
+        <v>1.874137410311391</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.790316946286353</v>
+        <v>0.5895326947300674</v>
       </c>
       <c r="N21">
-        <v>1.480013443892716</v>
+        <v>2.245525290191239</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4833147495075707</v>
+        <v>0.1988255660941007</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03812539828013684</v>
+        <v>0.07006675533205708</v>
       </c>
       <c r="E22">
-        <v>0.3196586633263863</v>
+        <v>0.1116161272365233</v>
       </c>
       <c r="F22">
-        <v>3.666163317857041</v>
+        <v>2.190414036859181</v>
       </c>
       <c r="G22">
-        <v>0.0007408417857370538</v>
+        <v>0.002464829710576583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.392101267759074</v>
+        <v>1.988810823853953</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.944283084714783</v>
+        <v>0.6241214209634052</v>
       </c>
       <c r="N22">
-        <v>1.491659042048568</v>
+        <v>2.245041614181943</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4648989157227277</v>
+        <v>0.1939785154334999</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03821521694580454</v>
+        <v>0.07016635816265904</v>
       </c>
       <c r="E23">
-        <v>0.3059504244275573</v>
+        <v>0.1086663533764636</v>
       </c>
       <c r="F23">
-        <v>3.529139118023835</v>
+        <v>2.163003947204231</v>
       </c>
       <c r="G23">
-        <v>0.0007449113846052076</v>
+        <v>0.002466889637043022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.122423860699712</v>
+        <v>1.92753959118528</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.861609659414611</v>
+        <v>0.6056371423594413</v>
       </c>
       <c r="N23">
-        <v>1.48509892329011</v>
+        <v>2.245245743627862</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.396222977736457</v>
+        <v>0.1757513818508443</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03887027015459665</v>
+        <v>0.07058387692972445</v>
       </c>
       <c r="E24">
-        <v>0.2559985821787905</v>
+        <v>0.09760416154311713</v>
       </c>
       <c r="F24">
-        <v>3.032051888585499</v>
+        <v>2.061335206296008</v>
       </c>
       <c r="G24">
-        <v>0.0007603531373812309</v>
+        <v>0.002474984064135821</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.131653888579649</v>
+        <v>1.696957106547529</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.55857847439691</v>
+        <v>0.5361432058344775</v>
       </c>
       <c r="N24">
-        <v>1.467384255946101</v>
+        <v>2.247201419156937</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3239928380802013</v>
+        <v>0.1563715120775413</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04011622508446422</v>
+        <v>0.07111904388905899</v>
       </c>
       <c r="E25">
-        <v>0.2053673444631343</v>
+        <v>0.08589642052932334</v>
       </c>
       <c r="F25">
-        <v>2.532925689112204</v>
+        <v>1.956167005862312</v>
       </c>
       <c r="G25">
-        <v>0.000777216166045241</v>
+        <v>0.002484345963948401</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.113141647601992</v>
+        <v>1.451266338866901</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.248295651809684</v>
+        <v>0.4622354030037314</v>
       </c>
       <c r="N25">
-        <v>1.461012283315725</v>
+        <v>2.251811314629492</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423430998685689</v>
+        <v>0.2720050036580517</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07158483997343978</v>
+        <v>0.04139088107138988</v>
       </c>
       <c r="E2">
-        <v>0.07745764676342759</v>
+        <v>0.1700891170285743</v>
       </c>
       <c r="F2">
-        <v>1.882501660108005</v>
+        <v>2.18917524906098</v>
       </c>
       <c r="G2">
-        <v>0.002491788268177655</v>
+        <v>0.0007899338618384053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.272811968774079</v>
+        <v>3.393641202968695</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4086679317595383</v>
+        <v>1.029944993792689</v>
       </c>
       <c r="N2">
-        <v>2.257329970245308</v>
+        <v>1.465190446409252</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329860782556551</v>
+        <v>0.2373475914730108</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07194469834303163</v>
+        <v>0.04243543690253659</v>
       </c>
       <c r="E3">
-        <v>0.07184626472631805</v>
+        <v>0.1471036853325955</v>
       </c>
       <c r="F3">
-        <v>1.834881906873136</v>
+        <v>1.967676655520393</v>
       </c>
       <c r="G3">
-        <v>0.00249717793146583</v>
+        <v>0.0007987923844314793</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.15332223790071</v>
+        <v>2.919764735004406</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3728690383117055</v>
+        <v>0.8865648051358903</v>
       </c>
       <c r="N3">
-        <v>2.262382466212301</v>
+        <v>1.472693294410234</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1273150356605015</v>
+        <v>0.2163017699421488</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07218726011375765</v>
+        <v>0.04315436363224379</v>
       </c>
       <c r="E4">
-        <v>0.06845219826029236</v>
+        <v>0.1333538752434258</v>
       </c>
       <c r="F4">
-        <v>1.806765004655333</v>
+        <v>1.836378292730259</v>
       </c>
       <c r="G4">
-        <v>0.002500658947520624</v>
+        <v>0.0008043644789646622</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.080647570257838</v>
+        <v>2.634094209013853</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3511290626892603</v>
+        <v>0.8003137987106186</v>
       </c>
       <c r="N4">
-        <v>2.266127998233017</v>
+        <v>1.479358747543245</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1250227743728942</v>
+        <v>0.2077775786094094</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07229151198261619</v>
+        <v>0.04346531555374966</v>
       </c>
       <c r="E5">
-        <v>0.06708177124968628</v>
+        <v>0.1278298604245585</v>
       </c>
       <c r="F5">
-        <v>1.795587397134881</v>
+        <v>1.783928627712342</v>
       </c>
       <c r="G5">
-        <v>0.002502120829616528</v>
+        <v>0.0008066705470349822</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.051203448059454</v>
+        <v>2.518814644480585</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.342329374868342</v>
+        <v>0.7655504771306028</v>
       </c>
       <c r="N5">
-        <v>2.267815513991565</v>
+        <v>1.482559632105364</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246432798875929</v>
+        <v>0.2063651067379908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07230914864330629</v>
+        <v>0.04351799375157839</v>
       </c>
       <c r="E6">
-        <v>0.06685497225583958</v>
+        <v>0.1269170462395195</v>
       </c>
       <c r="F6">
-        <v>1.793748237733269</v>
+        <v>1.775279650716584</v>
       </c>
       <c r="G6">
-        <v>0.002502366196151109</v>
+        <v>0.0008070556600451306</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.04632454650249</v>
+        <v>2.499735599896809</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3408717599831945</v>
+        <v>0.7597995216584579</v>
       </c>
       <c r="N6">
-        <v>2.268105442861554</v>
+        <v>1.483119498830831</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272840454658848</v>
+        <v>0.2161866070388783</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07218864423884241</v>
+        <v>0.04315848631165409</v>
       </c>
       <c r="E7">
-        <v>0.0684336651493993</v>
+        <v>0.1332790713227041</v>
       </c>
       <c r="F7">
-        <v>1.806613127208777</v>
+        <v>1.83566682420529</v>
       </c>
       <c r="G7">
-        <v>0.002500678487278869</v>
+        <v>0.0008043954336060112</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.080249786151768</v>
+        <v>2.632535166402675</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3510101472946232</v>
+        <v>0.7998434914626102</v>
       </c>
       <c r="N7">
-        <v>2.266150104834651</v>
+        <v>1.479399994922787</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391014386017417</v>
+        <v>0.260002382289386</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07170441795864235</v>
+        <v>0.04173397475892671</v>
       </c>
       <c r="E8">
-        <v>0.07551204577836046</v>
+        <v>0.1620805997734394</v>
       </c>
       <c r="F8">
-        <v>1.86584840825688</v>
+        <v>2.111746265371025</v>
       </c>
       <c r="G8">
-        <v>0.002493611072491573</v>
+        <v>0.0007929619321004405</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.231466480446613</v>
+        <v>3.229025701915361</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3962739049781092</v>
+        <v>0.9800964334177564</v>
       </c>
       <c r="N8">
-        <v>2.258938208220485</v>
+        <v>1.467329329508232</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1628622019188128</v>
+        <v>0.348113618837985</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07092754763001707</v>
+        <v>0.03963470134752711</v>
       </c>
       <c r="E9">
-        <v>0.08981122592701496</v>
+        <v>0.2220637303416808</v>
       </c>
       <c r="F9">
-        <v>1.991001085977075</v>
+        <v>2.696874908213033</v>
       </c>
       <c r="G9">
-        <v>0.002481107530048487</v>
+        <v>0.0007714965214313558</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.533637308493894</v>
+        <v>4.450731738090667</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4869956841956906</v>
+        <v>1.350993272562576</v>
       </c>
       <c r="N9">
-        <v>2.249926740487723</v>
+        <v>1.461654420252685</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1806765052107977</v>
+        <v>0.4146974564132222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07046382200439183</v>
+        <v>0.03864419615298686</v>
       </c>
       <c r="E10">
-        <v>0.1005884801463353</v>
+        <v>0.2692585149522131</v>
       </c>
       <c r="F10">
-        <v>2.088571880402924</v>
+        <v>3.163624190164114</v>
       </c>
       <c r="G10">
-        <v>0.002472737717014231</v>
+        <v>0.0007561521803760574</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.759296755071546</v>
+        <v>5.395942947259016</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5549200920212343</v>
+        <v>1.639301438615931</v>
       </c>
       <c r="N10">
-        <v>2.246472598048115</v>
+        <v>1.471079233691754</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1888583060809452</v>
+        <v>0.4455192248217088</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07027649615865883</v>
+        <v>0.03834885406731559</v>
       </c>
       <c r="E11">
-        <v>0.1055539900104066</v>
+        <v>0.2916699584325499</v>
       </c>
       <c r="F11">
-        <v>2.134211106057762</v>
+        <v>3.386650633144654</v>
       </c>
       <c r="G11">
-        <v>0.002469105259967509</v>
+        <v>0.0007492233274935798</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.862798012059102</v>
+        <v>5.840499655166866</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5861138132760431</v>
+        <v>1.77526784601568</v>
       </c>
       <c r="N11">
-        <v>2.245597340192361</v>
+        <v>1.479009461819956</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1919677145311596</v>
+        <v>0.4572793415261884</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07020899142452564</v>
+        <v>0.03826297384176058</v>
       </c>
       <c r="E12">
-        <v>0.1074436219974331</v>
+        <v>0.3003181067283478</v>
       </c>
       <c r="F12">
-        <v>2.15167612170174</v>
+        <v>3.472908089474657</v>
       </c>
       <c r="G12">
-        <v>0.002467754747616251</v>
+        <v>0.0007466029457172241</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.902116723378356</v>
+        <v>6.011353146850297</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5979696903906131</v>
+        <v>1.827582666951784</v>
       </c>
       <c r="N12">
-        <v>2.245366688098855</v>
+        <v>1.482604443626883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1912975536206147</v>
+        <v>0.4547424434504421</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0702233766063749</v>
+        <v>0.03828025008232672</v>
       </c>
       <c r="E13">
-        <v>0.1070362381088259</v>
+        <v>0.2984479370243562</v>
       </c>
       <c r="F13">
-        <v>2.147906569968455</v>
+        <v>3.454246218709471</v>
       </c>
       <c r="G13">
-        <v>0.002468044494240845</v>
+        <v>0.0007471672089562686</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.89364312394099</v>
+        <v>5.97443789972823</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5954143625636874</v>
+        <v>1.816276560974586</v>
       </c>
       <c r="N13">
-        <v>2.245411869306182</v>
+        <v>1.481802675327486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1891138961956642</v>
+        <v>0.4464848874288521</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07027087353190353</v>
+        <v>0.03834124519251247</v>
       </c>
       <c r="E14">
-        <v>0.1057092632668102</v>
+        <v>0.2923780485722247</v>
       </c>
       <c r="F14">
-        <v>2.13564429483381</v>
+        <v>3.393709314018565</v>
       </c>
       <c r="G14">
-        <v>0.002468993651921829</v>
+        <v>0.0007490077033264432</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.866030262082461</v>
+        <v>5.854502981839403</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5870883252194119</v>
+        <v>1.779554388380674</v>
       </c>
       <c r="N14">
-        <v>2.245576340311672</v>
+        <v>1.479292931905249</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1877777912290952</v>
+        <v>0.4414388129615787</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07030041468135906</v>
+        <v>0.0383821062838976</v>
       </c>
       <c r="E15">
-        <v>0.1048976718889207</v>
+        <v>0.2886819272652872</v>
       </c>
       <c r="F15">
-        <v>2.128157119276352</v>
+        <v>3.356871915478251</v>
       </c>
       <c r="G15">
-        <v>0.002469578292782454</v>
+        <v>0.0007501353775452642</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.849132963917896</v>
+        <v>5.781379560168659</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5819940848257374</v>
+        <v>1.757173103380424</v>
       </c>
       <c r="N15">
-        <v>2.245690230140838</v>
+        <v>1.477834931863484</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1801433680091691</v>
+        <v>0.4126948909666481</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07047654249754487</v>
+        <v>0.03866691757207263</v>
       </c>
       <c r="E16">
-        <v>0.1002652597917404</v>
+        <v>0.2678149612681153</v>
       </c>
       <c r="F16">
-        <v>2.085614661034668</v>
+        <v>3.149285837406381</v>
       </c>
       <c r="G16">
-        <v>0.002472978616029927</v>
+        <v>0.0007566057053141362</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.752550028495932</v>
+        <v>5.367217354014429</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5528875328860607</v>
+        <v>1.630523659979985</v>
       </c>
       <c r="N16">
-        <v>2.246543863943302</v>
+        <v>1.470639875331202</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1754798159803954</v>
+        <v>0.3952059156717667</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07059066631250488</v>
+        <v>0.03888379155781863</v>
       </c>
       <c r="E17">
-        <v>0.09743971371644733</v>
+        <v>0.2552723177053551</v>
       </c>
       <c r="F17">
-        <v>2.059838875544301</v>
+        <v>3.024854475953219</v>
       </c>
       <c r="G17">
-        <v>0.002475109324677173</v>
+        <v>0.0007605855558635577</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.693518844784421</v>
+        <v>5.117150447444146</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5351078523468829</v>
+        <v>1.554151030742162</v>
       </c>
       <c r="N17">
-        <v>2.24724630908625</v>
+        <v>1.467204359699949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1728048089989898</v>
+        <v>0.3851960392076847</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07065852894271885</v>
+        <v>0.03902289190600072</v>
       </c>
       <c r="E18">
-        <v>0.09582043748735458</v>
+        <v>0.2481450471689044</v>
       </c>
       <c r="F18">
-        <v>2.045131207386731</v>
+        <v>2.954274063856559</v>
       </c>
       <c r="G18">
-        <v>0.002476351333812429</v>
+        <v>0.0007628797638227221</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.659645262049935</v>
+        <v>4.974662333307435</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5249091075235839</v>
+        <v>1.510667390852419</v>
       </c>
       <c r="N18">
-        <v>2.247715810068655</v>
+        <v>1.465566598647612</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1719003614103656</v>
+        <v>0.3818149940452003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07068188660026919</v>
+        <v>0.03907235474082427</v>
       </c>
       <c r="E19">
-        <v>0.09527318442842159</v>
+        <v>0.245746079374932</v>
       </c>
       <c r="F19">
-        <v>2.040171625363627</v>
+        <v>2.93053924357352</v>
       </c>
       <c r="G19">
-        <v>0.002476774692063977</v>
+        <v>0.0007636575311365567</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.648189824325925</v>
+        <v>4.926637493736393</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5214607036841699</v>
+        <v>1.496017024798292</v>
       </c>
       <c r="N19">
-        <v>2.247885998974027</v>
+        <v>1.465068260890078</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1759754994505442</v>
+        <v>0.3970624599660511</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07057828746077632</v>
+        <v>0.03885919443235863</v>
       </c>
       <c r="E20">
-        <v>0.09773988510513476</v>
+        <v>0.256598331869796</v>
       </c>
       <c r="F20">
-        <v>2.062570536200468</v>
+        <v>3.037996241919927</v>
       </c>
       <c r="G20">
-        <v>0.002474880802195848</v>
+        <v>0.0007601613927001281</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.699794554936489</v>
+        <v>5.143628625130361</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5369976591303072</v>
+        <v>1.562234174386788</v>
       </c>
       <c r="N20">
-        <v>2.247164751359534</v>
+        <v>1.467534606154473</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1897549876326536</v>
+        <v>0.4489078247927552</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07025682912848552</v>
+        <v>0.03832259264391169</v>
       </c>
       <c r="E21">
-        <v>0.1060987734331675</v>
+        <v>0.2941563140406274</v>
       </c>
       <c r="F21">
-        <v>2.139241053925417</v>
+        <v>3.411439258521597</v>
       </c>
       <c r="G21">
-        <v>0.002468714183403628</v>
+        <v>0.0007484670471904327</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.874137410311391</v>
+        <v>5.889659050824264</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5895326947300674</v>
+        <v>1.790316946286367</v>
       </c>
       <c r="N21">
-        <v>2.245525290191239</v>
+        <v>1.48001344389273</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1988255660941007</v>
+        <v>0.4833147495075139</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07006675533205708</v>
+        <v>0.03812539828012618</v>
       </c>
       <c r="E22">
-        <v>0.1116161272365233</v>
+        <v>0.3196586633263507</v>
       </c>
       <c r="F22">
-        <v>2.190414036859181</v>
+        <v>3.666163317857041</v>
       </c>
       <c r="G22">
-        <v>0.002464829710576583</v>
+        <v>0.0007408417857363495</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.988810823853953</v>
+        <v>6.392101267759017</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6241214209634052</v>
+        <v>1.944283084714797</v>
       </c>
       <c r="N22">
-        <v>2.245041614181943</v>
+        <v>1.491659042048639</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1939785154334999</v>
+        <v>0.4648989157228414</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07016635816265904</v>
+        <v>0.03821521694603192</v>
       </c>
       <c r="E23">
-        <v>0.1086663533764636</v>
+        <v>0.3059504244275786</v>
       </c>
       <c r="F23">
-        <v>2.163003947204231</v>
+        <v>3.529139118023835</v>
       </c>
       <c r="G23">
-        <v>0.002466889637043022</v>
+        <v>0.0007449113846723051</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.92753959118528</v>
+        <v>6.122423860699655</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6056371423594413</v>
+        <v>1.861609659414611</v>
       </c>
       <c r="N23">
-        <v>2.245245743627862</v>
+        <v>1.485098923290138</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1757513818508443</v>
+        <v>0.3962229777364712</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07058387692972445</v>
+        <v>0.03887027015473876</v>
       </c>
       <c r="E24">
-        <v>0.09760416154311713</v>
+        <v>0.255998582178826</v>
       </c>
       <c r="F24">
-        <v>2.061335206296008</v>
+        <v>3.032051888585443</v>
       </c>
       <c r="G24">
-        <v>0.002474984064135821</v>
+        <v>0.0007603531373822396</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.696957106547529</v>
+        <v>5.131653888579763</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5361432058344775</v>
+        <v>1.558578474396896</v>
       </c>
       <c r="N24">
-        <v>2.247201419156937</v>
+        <v>1.467384255946115</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1563715120775413</v>
+        <v>0.3239928380801871</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07111904388905899</v>
+        <v>0.04011622508458146</v>
       </c>
       <c r="E25">
-        <v>0.08589642052932334</v>
+        <v>0.2053673444630775</v>
       </c>
       <c r="F25">
-        <v>1.956167005862312</v>
+        <v>2.532925689112233</v>
       </c>
       <c r="G25">
-        <v>0.002484345963948401</v>
+        <v>0.0007772161659895735</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.451266338866901</v>
+        <v>4.113141647601992</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4622354030037314</v>
+        <v>1.248295651809656</v>
       </c>
       <c r="N25">
-        <v>2.251811314629492</v>
+        <v>1.461012283315654</v>
       </c>
       <c r="O25">
         <v>0</v>
